--- a/mapeamento_layouts.xlsx
+++ b/mapeamento_layouts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2518"/>
+  <dimension ref="A1:C2525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37913,6 +37913,107 @@
         </is>
       </c>
     </row>
+    <row r="2519">
+      <c r="A2519" t="n">
+        <v>6454</v>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>CONNECTERE - RELATÓRIO CONAS FINANCEIRAS</t>
+        </is>
+      </c>
+      <c r="C2519" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" t="n">
+        <v>1421</v>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>TRIBANCO 10033696 PDF INTERNET BANKING - JOTAPE</t>
+        </is>
+      </c>
+      <c r="C2520" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" t="n">
+        <v>1420</v>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>TRIBANCO 10033688 PDF INTERNET BANKING - JOTAPE</t>
+        </is>
+      </c>
+      <c r="C2521" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" t="n">
+        <v>1409</v>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>TRIBANCO 10035320 PDF INTERNET BANKING - JOTAPE FILIAL</t>
+        </is>
+      </c>
+      <c r="C2522" t="inlineStr"/>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="n">
+        <v>6455</v>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t>WISE RH - RESUMO DA FOLHA DE PAGAMENTO</t>
+        </is>
+      </c>
+      <c r="C2523" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="n">
+        <v>6456</v>
+      </c>
+      <c r="B2524" t="inlineStr">
+        <is>
+          <t>REAL CLUB - EXTRATO DA CONTA</t>
+        </is>
+      </c>
+      <c r="C2524" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" t="n">
+        <v>1442</v>
+      </c>
+      <c r="B2525" t="inlineStr">
+        <is>
+          <t>OFX CAIXA MUNDIAL INDUSTRIA E COMERCIO DE URNAS LTDA</t>
+        </is>
+      </c>
+      <c r="C2525" t="inlineStr">
+        <is>
+          <t>OFX</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
